--- a/docs/Matriz Comunicações.xlsx
+++ b/docs/Matriz Comunicações.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Downloads\docs completos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Desktop\aaaaaaaaaaaaaaaaa\fast-chat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B04D9-1CD5-494B-8D00-9335B1F5BB89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C85E80-5DB0-4FFA-A45C-1CFC57EFC464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -798,12 +798,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -1439,7 +1433,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1600,8 +1594,7 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1702,7 +1695,9 @@
     <xf numFmtId="0" fontId="20" fillId="40" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="44" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="44" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2308,17 +2303,17 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="103" t="s">
+      <c r="B11" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="55" t="s">
@@ -2330,14 +2325,14 @@
       <c r="D12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="105" t="s">
+      <c r="E12" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="56" t="s">
@@ -2349,39 +2344,39 @@
       <c r="D13" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="D14" s="59"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="55" t="s">
@@ -2393,14 +2388,14 @@
       <c r="D17" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="97" t="s">
+      <c r="E17" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="56">
@@ -2408,12 +2403,12 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="59"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="102"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="101"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="56">
@@ -2421,26 +2416,26 @@
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
-      <c r="J19" s="102"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="101"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="60" t="s">
@@ -2452,14 +2447,14 @@
       <c r="D22" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="104"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="59">
@@ -2469,14 +2464,14 @@
         <v>21</v>
       </c>
       <c r="D23" s="59"/>
-      <c r="E23" s="95" t="s">
+      <c r="E23" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="59" t="s">
@@ -2486,14 +2481,14 @@
         <v>21</v>
       </c>
       <c r="D24" s="59"/>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
@@ -2503,14 +2498,14 @@
         <v>21</v>
       </c>
       <c r="D25" s="59"/>
-      <c r="E25" s="95" t="s">
+      <c r="E25" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="59" t="s">
@@ -2520,14 +2515,14 @@
         <v>21</v>
       </c>
       <c r="D26" s="59"/>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59">
@@ -2537,14 +2532,14 @@
         <v>21</v>
       </c>
       <c r="D27" s="59"/>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="95"/>
-      <c r="G27" s="95"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
@@ -2554,14 +2549,14 @@
         <v>31</v>
       </c>
       <c r="D28" s="59"/>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
@@ -2571,14 +2566,14 @@
         <v>21</v>
       </c>
       <c r="D29" s="59"/>
-      <c r="E29" s="95" t="s">
+      <c r="E29" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
@@ -2588,225 +2583,225 @@
         <v>21</v>
       </c>
       <c r="D30" s="59"/>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="57"/>
       <c r="C31" s="58"/>
       <c r="D31" s="57"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="91"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="90"/>
     </row>
     <row r="33" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="87"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="91"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="90"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="94"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="93"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="84"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="83"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="70"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="72"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="71"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="73" t="s">
+      <c r="B39" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="75"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="73" t="s">
+      <c r="B40" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="74"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="73" t="s">
+      <c r="B41" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="75"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="81"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="80"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="82" t="s">
+      <c r="B43" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="84"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="83"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="75"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="75"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="74"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="75"/>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="74"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="76"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="78"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -2884,10 +2879,10 @@
   <dimension ref="B1:Q12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13:O31"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,12 +2910,12 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2975,20 +2970,20 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="109"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="111"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="110"/>
     </row>
     <row r="5" spans="2:17" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
@@ -3018,7 +3013,7 @@
       <c r="J5" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="113" t="s">
         <v>136</v>
       </c>
       <c r="L5" s="64" t="s">
@@ -3061,7 +3056,7 @@
       <c r="J6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="50" t="s">
         <v>137</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -3104,7 +3099,7 @@
       <c r="J7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="63" t="s">
+      <c r="K7" s="111" t="s">
         <v>134</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -3147,7 +3142,7 @@
       <c r="J8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="68" t="s">
+      <c r="K8" s="112" t="s">
         <v>141</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -3190,7 +3185,7 @@
       <c r="J9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="53" t="s">
+      <c r="K9" s="50" t="s">
         <v>128</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -3233,7 +3228,7 @@
       <c r="J10" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="53" t="s">
+      <c r="K10" s="50" t="s">
         <v>130</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -3276,7 +3271,7 @@
       <c r="J11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="50" t="s">
         <v>146</v>
       </c>
       <c r="L11" s="4" t="s">
@@ -3319,13 +3314,13 @@
       <c r="J12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="K12" s="113" t="s">
         <v>152</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M12" s="112" t="s">
+      <c r="M12" s="68" t="s">
         <v>153</v>
       </c>
       <c r="N12" s="54" t="s">
@@ -3352,15 +3347,18 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1" display="Plano de Gerenciamento do Projeto" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="K10" r:id="rId2" display="Registro dos riscos" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="K6" r:id="rId3" tooltip="Termo de Abertura do Projeto" display="Gerenciamento do Escopo" xr:uid="{3F750A4A-C8E8-49B0-8197-F852E145FE36}"/>
+    <hyperlink ref="K9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="K10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="K6" r:id="rId3" tooltip="Termo de Abertura do Projeto" xr:uid="{3F750A4A-C8E8-49B0-8197-F852E145FE36}"/>
     <hyperlink ref="K5" r:id="rId4" xr:uid="{F4B72F96-E2A2-43E6-9BFD-98604C9EBB26}"/>
     <hyperlink ref="M5" r:id="rId5" display="http://escritoriodeprojetos.com.br/desenvolver-o-termo-de-abertura-do-projeto" xr:uid="{264D1147-1CFB-4D86-8558-BA81C3BCF73C}"/>
     <hyperlink ref="K8" r:id="rId6" xr:uid="{286450CE-E2E6-4B63-81BA-E51364CE2679}"/>
+    <hyperlink ref="K7" r:id="rId7" xr:uid="{A615A471-5CDF-490B-A87A-A65E5500E2C7}"/>
+    <hyperlink ref="K11" r:id="rId8" xr:uid="{CD8814AB-1AEF-4841-ABDB-683FB769E658}"/>
+    <hyperlink ref="K12" r:id="rId9" xr:uid="{A05376D1-3A4C-4378-A923-76FFA572A3ED}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;LMatriz das comunicações&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;F
@@ -3400,12 +3398,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
     </row>
     <row r="2" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
@@ -3661,15 +3659,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E9F516014CC74246938A4137CF0483E3" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e287fe807ff5fe2bc292e6dfd468e47c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fc65770-8e2f-4c0a-b79c-7d0363d2cfc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fae2131b9c4f564c3cf3ce20f097230c" ns2:_="">
     <xsd:import namespace="1fc65770-8e2f-4c0a-b79c-7d0363d2cfc7"/>
@@ -3827,21 +3816,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71D646DE-231A-42E1-9347-E7CB0B60D08E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC78DA3D-D972-480F-8654-A386C85DB5A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3859,11 +3849,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F023C16-AACF-4D0D-B071-9C130BD3ABA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71D646DE-231A-42E1-9347-E7CB0B60D08E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Matriz Comunicações.xlsx
+++ b/docs/Matriz Comunicações.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Desktop\aaaaaaaaaaaaaaaaa\fast-chat\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derek\Downloads\docs completos\fast-chat\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C85E80-5DB0-4FFA-A45C-1CFC57EFC464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977C7EA0-45F7-458F-A105-48085E20EC47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="170">
   <si>
     <t>Matriz das comunicações</t>
   </si>
@@ -529,6 +529,45 @@
   </si>
   <si>
     <t>Cronograma</t>
+  </si>
+  <si>
+    <t>Registro de Riscos</t>
+  </si>
+  <si>
+    <t>Registrar os riscos conforme o progresso do projeto</t>
+  </si>
+  <si>
+    <t>Registro de riscos</t>
+  </si>
+  <si>
+    <t>Ele é atualizado conforme os outros processos de gerenciamento de riscos são feitos.</t>
+  </si>
+  <si>
+    <t>Registrar os riscos</t>
+  </si>
+  <si>
+    <t>Burndown</t>
+  </si>
+  <si>
+    <t>Mostrar com está a produtividade da equipe</t>
+  </si>
+  <si>
+    <t>A cada inicio de sprint o GP deve reunir a equipe e definir as atividades e o tempo necessário para a realização de cada uma. Deve ser atualizado caso uma atividade nova apareça.</t>
+  </si>
+  <si>
+    <t>Desenvolver o burndown</t>
+  </si>
+  <si>
+    <t>Documentar as conclusões obtidas em relação aos produtos, serviços ou resultados do projeto adquiridos fora da organização do projeto ou realizados internamente pela equipe do projeto.</t>
+  </si>
+  <si>
+    <t>Decisões de Comprar</t>
+  </si>
+  <si>
+    <t>Decisões de Compra</t>
+  </si>
+  <si>
+    <t>Criar e desenvolver as decisões de compra</t>
   </si>
 </sst>
 </file>
@@ -1597,74 +1636,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="44" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="44" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="20" fillId="39" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="39" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="39" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="18" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="19" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -1672,17 +1655,78 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="1" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="21" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="22" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="39" borderId="18" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="39" borderId="19" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="39" borderId="20" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="45" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1694,11 +1738,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="40" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="44" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="44" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -2303,17 +2342,17 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="55" t="s">
@@ -2325,14 +2364,14 @@
       <c r="D12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="56" t="s">
@@ -2344,39 +2383,39 @@
       <c r="D13" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
       <c r="D14" s="59"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="106"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="55" t="s">
@@ -2388,14 +2427,14 @@
       <c r="D17" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="56">
@@ -2403,12 +2442,12 @@
       </c>
       <c r="C18" s="56"/>
       <c r="D18" s="59"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="101"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="81"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="56">
@@ -2416,26 +2455,26 @@
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="101"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="60" t="s">
@@ -2447,14 +2486,14 @@
       <c r="D22" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="59">
@@ -2464,14 +2503,14 @@
         <v>21</v>
       </c>
       <c r="D23" s="59"/>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="59" t="s">
@@ -2481,14 +2520,14 @@
         <v>21</v>
       </c>
       <c r="D24" s="59"/>
-      <c r="E24" s="94" t="s">
+      <c r="E24" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="59" t="s">
@@ -2498,14 +2537,14 @@
         <v>21</v>
       </c>
       <c r="D25" s="59"/>
-      <c r="E25" s="94" t="s">
+      <c r="E25" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="59" t="s">
@@ -2515,14 +2554,14 @@
         <v>21</v>
       </c>
       <c r="D26" s="59"/>
-      <c r="E26" s="94" t="s">
+      <c r="E26" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="83"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="59">
@@ -2532,14 +2571,14 @@
         <v>21</v>
       </c>
       <c r="D27" s="59"/>
-      <c r="E27" s="94" t="s">
+      <c r="E27" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="59" t="s">
@@ -2549,14 +2588,14 @@
         <v>31</v>
       </c>
       <c r="D28" s="59"/>
-      <c r="E28" s="94" t="s">
+      <c r="E28" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="59" t="s">
@@ -2566,14 +2605,14 @@
         <v>21</v>
       </c>
       <c r="D29" s="59"/>
-      <c r="E29" s="94" t="s">
+      <c r="E29" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="94"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="94"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="83"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="59" t="s">
@@ -2583,253 +2622,228 @@
         <v>21</v>
       </c>
       <c r="D30" s="59"/>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="83"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="57"/>
       <c r="C31" s="58"/>
       <c r="D31" s="57"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="90"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="87"/>
     </row>
     <row r="33" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="86"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="90"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="91"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="88" t="s">
+      <c r="B35" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="90"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="87"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="94"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="83"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="97"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="69"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="71"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="100"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="74"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="103"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="74"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="103"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="74"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="78"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="80"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="109"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="83"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="97"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="103"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="74"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="103"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="74"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="103"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="75"/>
-      <c r="C47" s="76"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="77"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
     <mergeCell ref="B38:J38"/>
     <mergeCell ref="B39:J39"/>
     <mergeCell ref="B40:J40"/>
@@ -2840,6 +2854,31 @@
     <mergeCell ref="B44:J44"/>
     <mergeCell ref="B45:J45"/>
     <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="B16:J16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" location="Informacoes!A1" display="Informações" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2876,13 +2915,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:Q12"/>
+  <dimension ref="B1:Q28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,12 +2949,12 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -2970,20 +3009,20 @@
       </c>
     </row>
     <row r="4" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="108"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="113"/>
     </row>
     <row r="5" spans="2:17" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
@@ -3013,7 +3052,7 @@
       <c r="J5" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="K5" s="113" t="s">
+      <c r="K5" s="71" t="s">
         <v>136</v>
       </c>
       <c r="L5" s="64" t="s">
@@ -3072,7 +3111,7 @@
     </row>
     <row r="7" spans="2:17" s="7" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
-        <f t="shared" ref="B7:B12" si="0">B6+1</f>
+        <f t="shared" ref="B7:B28" si="0">B6+1</f>
         <v>3</v>
       </c>
       <c r="C7" s="62" t="s">
@@ -3099,7 +3138,7 @@
       <c r="J7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="111" t="s">
+      <c r="K7" s="69" t="s">
         <v>134</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -3142,7 +3181,7 @@
       <c r="J8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K8" s="112" t="s">
+      <c r="K8" s="70" t="s">
         <v>141</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -3314,7 +3353,7 @@
       <c r="J12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="113" t="s">
+      <c r="K12" s="71" t="s">
         <v>152</v>
       </c>
       <c r="L12" s="5" t="s">
@@ -3327,6 +3366,338 @@
         <v>155</v>
       </c>
       <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="M13" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="N13" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M14" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="N14" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="B15" s="5">
+        <v>11</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" s="8"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="8"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="8"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="8"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="8"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="8"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:O12" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -3339,10 +3710,10 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I6:I10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>When</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" sqref="I11:I12" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" errorStyle="warning" showInputMessage="1" showErrorMessage="1" sqref="I11:I28" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>When</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J6:J12" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="J6:J28" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Where</formula1>
     </dataValidation>
   </dataValidations>
@@ -3356,9 +3727,12 @@
     <hyperlink ref="K7" r:id="rId7" xr:uid="{A615A471-5CDF-490B-A87A-A65E5500E2C7}"/>
     <hyperlink ref="K11" r:id="rId8" xr:uid="{CD8814AB-1AEF-4841-ABDB-683FB769E658}"/>
     <hyperlink ref="K12" r:id="rId9" xr:uid="{A05376D1-3A4C-4378-A923-76FFA572A3ED}"/>
+    <hyperlink ref="K13" r:id="rId10" xr:uid="{87C2CE9D-D92B-42BA-B6EC-421A27BBF0BE}"/>
+    <hyperlink ref="K14" r:id="rId11" xr:uid="{A15C75EC-41F3-4C07-92D3-406B11D1517B}"/>
+    <hyperlink ref="K15" r:id="rId12" xr:uid="{AFC25C9D-1248-45E3-8829-58FE1E1950A3}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.31496062992125984" top="0.59055118110236227" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId13"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;LMatriz das comunicações&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;L&amp;F
@@ -3398,12 +3772,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
     </row>
     <row r="2" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
@@ -3659,6 +4033,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E9F516014CC74246938A4137CF0483E3" ma:contentTypeVersion="6" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e287fe807ff5fe2bc292e6dfd468e47c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1fc65770-8e2f-4c0a-b79c-7d0363d2cfc7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fae2131b9c4f564c3cf3ce20f097230c" ns2:_="">
     <xsd:import namespace="1fc65770-8e2f-4c0a-b79c-7d0363d2cfc7"/>
@@ -3816,12 +4196,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3832,6 +4206,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F023C16-AACF-4D0D-B071-9C130BD3ABA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC78DA3D-D972-480F-8654-A386C85DB5A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3849,15 +4232,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F023C16-AACF-4D0D-B071-9C130BD3ABA5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71D646DE-231A-42E1-9347-E7CB0B60D08E}">
   <ds:schemaRefs>
